--- a/plantillas/Opiniones_Distrito.xlsx
+++ b/plantillas/Opiniones_Distrito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1562AAC-D144-4B1A-82D5-A96CAE2191B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCB932-7DCF-40D8-BF73-70605AB2AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -533,11 +533,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -550,44 +548,41 @@
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="F5" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
@@ -598,69 +593,66 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10"/>
-      <c r="F10" s="9" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9"/>
+      <c r="F9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
